--- a/project1/report/data2.xlsx
+++ b/project1/report/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joo Kai\Documents\GitHub\CITS5507-HPC\project1\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CF8319-5559-4257-B190-61AA91DA7B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E832A9-C484-482B-AE0A-0398F457659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5100" windowWidth="28110" windowHeight="16440" xr2:uid="{A59C5F96-18FE-41B9-A386-8D7B7E65B7C1}"/>
+    <workbookView xWindow="-27990" yWindow="5010" windowWidth="28110" windowHeight="16440" xr2:uid="{A59C5F96-18FE-41B9-A386-8D7B7E65B7C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Parallel_Base</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Sections</t>
+  </si>
+  <si>
+    <t>Chunksize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static_Chunks </t>
+  </si>
+  <si>
+    <t>Dynamic_Chunks</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6DC8F8-E009-44BD-86A4-E990F1DF2602}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,9 +426,12 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -447,8 +459,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -476,8 +497,17 @@
       <c r="I2">
         <v>17.87425</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>18.753095999999999</v>
+      </c>
+      <c r="L2">
+        <v>17.824936000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -505,8 +535,17 @@
       <c r="I3">
         <v>17.862075999999998</v>
       </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>17.346914999999999</v>
+      </c>
+      <c r="L3">
+        <v>16.756360000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -534,8 +573,17 @@
       <c r="I4">
         <v>18.339471</v>
       </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>16.557599</v>
+      </c>
+      <c r="L4">
+        <v>16.625233999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -563,8 +611,17 @@
       <c r="I5">
         <v>19.545884000000001</v>
       </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>16.564748000000002</v>
+      </c>
+      <c r="L5">
+        <v>16.690579</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64</v>
       </c>
@@ -591,6 +648,15 @@
       </c>
       <c r="I6">
         <v>21.431228000000001</v>
+      </c>
+      <c r="J6">
+        <v>2500</v>
+      </c>
+      <c r="K6">
+        <v>16.544633000000001</v>
+      </c>
+      <c r="L6">
+        <v>16.617457999999999</v>
       </c>
     </row>
   </sheetData>
